--- a/finished_tasks.xlsx
+++ b/finished_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\PycharmProjects\WinPOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD65354B-757F-45E3-B9EE-1F01020DA336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D992DFE4-207F-4531-8C34-9E35D9B34287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>SO22009339</t>
   </si>
@@ -34,72 +34,6 @@
   </si>
   <si>
     <t>SO22009657</t>
-  </si>
-  <si>
-    <t>SO22009712</t>
-  </si>
-  <si>
-    <t>SO22009881</t>
-  </si>
-  <si>
-    <t>SO22009898</t>
-  </si>
-  <si>
-    <t>SO22009940</t>
-  </si>
-  <si>
-    <t>SO22009944</t>
-  </si>
-  <si>
-    <t>SO22009950</t>
-  </si>
-  <si>
-    <t>SO22009957</t>
-  </si>
-  <si>
-    <t>SO22009968</t>
-  </si>
-  <si>
-    <t>SO22009979</t>
-  </si>
-  <si>
-    <t>SO22009991</t>
-  </si>
-  <si>
-    <t>SO22010025</t>
-  </si>
-  <si>
-    <t>SO22010031</t>
-  </si>
-  <si>
-    <t>SO22010062</t>
-  </si>
-  <si>
-    <t>SO22010063</t>
-  </si>
-  <si>
-    <t>SO22010074</t>
-  </si>
-  <si>
-    <t>SO22010086</t>
-  </si>
-  <si>
-    <t>SO22010088</t>
-  </si>
-  <si>
-    <t>SO22010092</t>
-  </si>
-  <si>
-    <t>SO22010093</t>
-  </si>
-  <si>
-    <t>SO22010096</t>
-  </si>
-  <si>
-    <t>SO22010105</t>
-  </si>
-  <si>
-    <t>SO22010107</t>
   </si>
   <si>
     <t>SO22010108</t>
@@ -450,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -463,7 +397,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -529,116 +463,6 @@
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/finished_tasks.xlsx
+++ b/finished_tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\PycharmProjects\WinPOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/WinPOC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D992DFE4-207F-4531-8C34-9E35D9B34287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C952AF-173D-6247-A506-9E6290E4FD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,46 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>SO22009339</t>
-  </si>
-  <si>
-    <t>SO22009647</t>
-  </si>
-  <si>
-    <t>SO22009657</t>
-  </si>
-  <si>
-    <t>SO22010108</t>
-  </si>
-  <si>
-    <t>SO22010123</t>
-  </si>
-  <si>
-    <t>SO22010133</t>
-  </si>
-  <si>
-    <t>SO22010134</t>
-  </si>
-  <si>
-    <t>SO22010140</t>
-  </si>
-  <si>
-    <t>SO22010141</t>
-  </si>
-  <si>
-    <t>SO22010142</t>
-  </si>
-  <si>
-    <t>SO22010168</t>
-  </si>
-  <si>
-    <t>SO22010197</t>
-  </si>
-  <si>
-    <t>SO22010210</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>order_ids_to_remove</t>
   </si>
@@ -384,85 +345,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/finished_tasks.xlsx
+++ b/finished_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/WinPOC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C952AF-173D-6247-A506-9E6290E4FD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBD4E85-712D-A041-9FB9-9419DF3F839C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>order_ids_to_remove</t>
+  </si>
+  <si>
+    <t>SO22009339</t>
+  </si>
+  <si>
+    <t>SO22009647</t>
+  </si>
+  <si>
+    <t>SO22009657</t>
+  </si>
+  <si>
+    <t>SO22010108</t>
+  </si>
+  <si>
+    <t>SO22010123</t>
+  </si>
+  <si>
+    <t>SO22010133</t>
+  </si>
+  <si>
+    <t>SO22010134</t>
+  </si>
+  <si>
+    <t>SO22010140</t>
+  </si>
+  <si>
+    <t>SO22010141</t>
+  </si>
+  <si>
+    <t>SO22010142</t>
+  </si>
+  <si>
+    <t>SO22010168</t>
+  </si>
+  <si>
+    <t>SO22010197</t>
+  </si>
+  <si>
+    <t>SO22010210</t>
   </si>
 </sst>
 </file>
@@ -345,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A14"/>
@@ -361,6 +400,71 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/finished_tasks.xlsx
+++ b/finished_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofia/PycharmProjects/WinPOC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBD4E85-712D-A041-9FB9-9419DF3F839C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E671B1-16B0-354D-9366-56AB61E26EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,48 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>order_ids_to_remove</t>
-  </si>
-  <si>
-    <t>SO22009339</t>
-  </si>
-  <si>
-    <t>SO22009647</t>
-  </si>
-  <si>
-    <t>SO22009657</t>
-  </si>
-  <si>
-    <t>SO22010108</t>
-  </si>
-  <si>
-    <t>SO22010123</t>
-  </si>
-  <si>
-    <t>SO22010133</t>
-  </si>
-  <si>
-    <t>SO22010134</t>
-  </si>
-  <si>
-    <t>SO22010140</t>
-  </si>
-  <si>
-    <t>SO22010141</t>
-  </si>
-  <si>
-    <t>SO22010142</t>
-  </si>
-  <si>
-    <t>SO22010168</t>
-  </si>
-  <si>
-    <t>SO22010197</t>
-  </si>
-  <si>
-    <t>SO22010210</t>
   </si>
 </sst>
 </file>
@@ -384,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -400,71 +361,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
